--- a/branches/riziv/StructureDefinition-BeModelMedicationRecordDispense.xlsx
+++ b/branches/riziv/StructureDefinition-BeModelMedicationRecordDispense.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$22</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="101">
   <si>
     <t>Path</t>
   </si>
@@ -137,7 +137,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>Medication Record Dispense logical model</t>
+    <t>[Logical Model] - Dispense</t>
+  </si>
+  <si>
+    <t>A model for representing a product dispense.</t>
   </si>
   <si>
     <t>Base</t>
@@ -183,7 +186,7 @@
 </t>
   </si>
   <si>
-    <t>Reference to person that performed the recording or reporting</t>
+    <t>The person that made the dispense</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.dispenser.organization</t>
@@ -193,6 +196,9 @@
 </t>
   </si>
   <si>
+    <t>The organzation from which the dispenser belongs</t>
+  </si>
+  <si>
     <t>BeModelMedicationRecordDispense.date</t>
   </si>
   <si>
@@ -236,7 +242,7 @@
 </t>
   </si>
   <si>
-    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | declined | unknown  MedicationDispense Status Codes (Required)</t>
+    <t>Status of the dispense</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.statusReason</t>
@@ -246,7 +252,7 @@
 </t>
   </si>
   <si>
-    <t>Why a dispense was not performed MedicationDispense Status Reason Codes (Example)</t>
+    <t>Reason for a dispense status</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.product[x]</t>
@@ -256,6 +262,9 @@
 Reference(Medication)</t>
   </si>
   <si>
+    <t>The product that was dispensed</t>
+  </si>
+  <si>
     <t>The product that was dispensed - coded or not (e.g. for magistral preparations)</t>
   </si>
   <si>
@@ -276,7 +285,7 @@
 </t>
   </si>
   <si>
-    <t>The instructions for use</t>
+    <t>The instructions for using the product</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.note</t>
@@ -286,7 +295,7 @@
 </t>
   </si>
   <si>
-    <t>Additional information about the dispensed item</t>
+    <t>Additional information about the dispensed product</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.substitutionReason</t>
@@ -298,7 +307,7 @@
     <t>BeModelMedicationRecordDispense.type</t>
   </si>
   <si>
-    <t>Trial fill, partial fill, emergency fill, etc.</t>
+    <t>Type of dispense</t>
   </si>
   <si>
     <t>BeModelMedicationRecordDispense.location</t>
@@ -308,14 +317,23 @@
 </t>
   </si>
   <si>
-    <t>Where the dispense was made</t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecordDispense.treatment</t>
+    <t>Location where the dispense was made</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.treatmentPlan</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
+  </si>
+  <si>
+    <t>Link to the 'parent' treatment - i.e the treatment that this order is derived from, or contriburing to</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordDispense.basedOn</t>
+  </si>
+  <si>
+    <t>link to the 'parent' treatmentLine - i.e the line that covers all of the same drug for a certain purpose</t>
   </si>
 </sst>
 </file>
@@ -464,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -483,7 +501,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="142.48828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.9453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -651,7 +669,9 @@
       <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -701,7 +721,7 @@
         <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>38</v>
@@ -721,7 +741,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -732,7 +752,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>37</v>
@@ -744,13 +764,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -801,13 +821,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -821,7 +841,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -829,10 +849,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -844,13 +864,13 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -901,13 +921,13 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -921,7 +941,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -944,13 +964,13 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1001,7 +1021,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>38</v>
@@ -1021,7 +1041,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1029,10 +1049,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -1044,13 +1064,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1101,13 +1121,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -1121,7 +1141,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1129,10 +1149,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>37</v>
@@ -1144,13 +1164,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1201,13 +1221,13 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>37</v>
@@ -1221,7 +1241,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1229,10 +1249,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1244,13 +1264,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1301,13 +1321,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1321,7 +1341,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1332,7 +1352,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1344,13 +1364,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1401,13 +1421,13 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1421,7 +1441,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1432,7 +1452,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1444,13 +1464,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1501,13 +1521,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1521,7 +1541,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1532,7 +1552,7 @@
         <v>38</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>37</v>
@@ -1544,13 +1564,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1601,13 +1621,13 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>37</v>
@@ -1621,7 +1641,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1629,10 +1649,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1644,13 +1664,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1701,13 +1721,13 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1721,7 +1741,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1744,13 +1764,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1801,7 +1821,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1821,7 +1841,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1829,10 +1849,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>37</v>
@@ -1844,13 +1864,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1901,13 +1921,13 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>37</v>
@@ -1921,7 +1941,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1932,7 +1952,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -1944,13 +1964,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2001,13 +2021,13 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
@@ -2021,7 +2041,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2032,7 +2052,7 @@
         <v>38</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -2044,13 +2064,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2101,13 +2121,13 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>37</v>
@@ -2121,7 +2141,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2144,13 +2164,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2201,7 +2221,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
@@ -2221,7 +2241,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2232,7 +2252,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>37</v>
@@ -2244,13 +2264,13 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2301,13 +2321,13 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>37</v>
@@ -2321,7 +2341,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2332,7 +2352,7 @@
         <v>38</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>37</v>
@@ -2344,13 +2364,13 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2401,13 +2421,13 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>37</v>
@@ -2421,7 +2441,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2432,7 +2452,7 @@
         <v>38</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>37</v>
@@ -2444,13 +2464,13 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2501,13 +2521,13 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>37</v>
@@ -2521,7 +2541,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2532,7 +2552,7 @@
         <v>38</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>37</v>
@@ -2544,10 +2564,14 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -2597,13 +2621,13 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>37</v>
@@ -2612,11 +2636,111 @@
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ21">
+  <autoFilter ref="A1:AJ22">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2626,7 +2750,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI20">
+  <conditionalFormatting sqref="A2:AI21">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
